--- a/xlsx/hollow_cylinder_cubic.xlsx
+++ b/xlsx/hollow_cylinder_cubic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrrk-plate/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrbc-plate/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4383E2F8-850D-D540-A16D-FD0D03EC9389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E91BD8-C291-8E4D-BABC-BE2215CA72B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="5" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,10 +620,10 @@
         <v>-1.6911035838107975</v>
       </c>
       <c r="E2">
-        <v>-2.266431268857792</v>
+        <v>-2.841522498697358</v>
       </c>
       <c r="F2">
-        <v>-2.9045777820957874</v>
+        <v>-3.0026990892835461</v>
       </c>
       <c r="G2">
         <v>-3.2492078448898583</v>
@@ -634,7 +634,7 @@
         <v>-2.1205747272326843</v>
       </c>
       <c r="B3">
-        <v>-2.029172255970559</v>
+        <v>-2.0291722559705589</v>
       </c>
       <c r="C3">
         <v>-2.105927313655672</v>
@@ -643,10 +643,10 @@
         <v>-2.0824414786888767</v>
       </c>
       <c r="E3">
-        <v>-3.7225983229498474</v>
+        <v>-3.8523010344684665</v>
       </c>
       <c r="F3">
-        <v>-4.122302206956836</v>
+        <v>-4.176897915145525</v>
       </c>
       <c r="G3">
         <v>-4.989789838191192</v>
@@ -666,13 +666,13 @@
         <v>-2.6205624422169453</v>
       </c>
       <c r="E4">
-        <v>-4.668698752844211</v>
+        <v>-4.575477473812354</v>
       </c>
       <c r="F4">
-        <v>-5.319397978465882</v>
+        <v>-5.6374649982527307</v>
       </c>
       <c r="G4">
-        <v>-6.563460071288917</v>
+        <v>-6.5634600712889171</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -680,22 +680,22 @@
         <v>-3.2679495809317407</v>
       </c>
       <c r="B5">
-        <v>-3.455766664508137</v>
+        <v>-3.4557666645081371</v>
       </c>
       <c r="C5">
-        <v>-3.271874897766698</v>
+        <v>-3.2718748977666978</v>
       </c>
       <c r="D5">
-        <v>-3.458646082286965</v>
+        <v>-3.4586460822869651</v>
       </c>
       <c r="E5">
-        <v>-5.455691922059557</v>
+        <v>-5.4556919220595574</v>
       </c>
       <c r="F5">
-        <v>-6.93758128306176</v>
+        <v>-7.0639717174448027</v>
       </c>
       <c r="G5">
-        <v>-7.906171365918358</v>
+        <v>-7.9061713659183583</v>
       </c>
     </row>
   </sheetData>
@@ -760,24 +760,24 @@
         <v>-1.3485731035144168</v>
       </c>
       <c r="C2">
-        <v>-1.551072455810309</v>
+        <v>-1.5510724558103091</v>
       </c>
       <c r="D2">
         <v>-1.4458904243417199</v>
       </c>
       <c r="E2">
-        <v>-2.0988273723067614</v>
+        <v>-2.5576545639496047</v>
       </c>
       <c r="F2">
-        <v>-2.653213904875541</v>
+        <v>-2.6759943841618679</v>
       </c>
       <c r="G2">
-        <v>-2.742097242663332</v>
+        <v>-2.7420972426633319</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-1.824948904874996</v>
+        <v>-1.8249489048749961</v>
       </c>
       <c r="B3">
         <v>-1.7156510609200057</v>
@@ -789,21 +789,21 @@
         <v>-1.771262499586131</v>
       </c>
       <c r="E3">
-        <v>-3.5323685142650514</v>
+        <v>-3.7480052514201367</v>
       </c>
       <c r="F3">
-        <v>-3.2281700500992443</v>
+        <v>-3.592295387947225</v>
       </c>
       <c r="G3">
-        <v>-4.031201525538933</v>
+        <v>-4.0312015255389326</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-2.182574685368213</v>
+        <v>-2.1825746853682131</v>
       </c>
       <c r="B4">
-        <v>-2.12474356777929</v>
+        <v>-2.1247435677792899</v>
       </c>
       <c r="C4">
         <v>-2.176692458539712</v>
@@ -812,13 +812,13 @@
         <v>-2.1630199901224896</v>
       </c>
       <c r="E4">
-        <v>-4.447848163221464</v>
+        <v>-4.4668071039599182</v>
       </c>
       <c r="F4">
-        <v>-4.1371675558024945</v>
+        <v>-4.5714298801255806</v>
       </c>
       <c r="G4">
-        <v>-5.376755592117561</v>
+        <v>-5.3767555921175614</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -826,10 +826,10 @@
         <v>-2.5729344145331363</v>
       </c>
       <c r="B5">
-        <v>-2.579075260357054</v>
+        <v>-2.5790752603570541</v>
       </c>
       <c r="C5">
-        <v>-2.561628436118516</v>
+        <v>-2.5616284361185162</v>
       </c>
       <c r="D5">
         <v>-2.567058452367796</v>
@@ -838,10 +838,10 @@
         <v>-5.158002722957038</v>
       </c>
       <c r="F5">
-        <v>-5.945687372251456</v>
+        <v>-5.6962528408123099</v>
       </c>
       <c r="G5">
-        <v>-6.440480854526546</v>
+        <v>-6.4404808545265464</v>
       </c>
     </row>
   </sheetData>
@@ -897,22 +897,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-0.9018619938258948</v>
+        <v>-0.90186199382589483</v>
       </c>
       <c r="B2">
-        <v>-0.7840301653196451</v>
+        <v>-0.78403016531964509</v>
       </c>
       <c r="C2">
-        <v>-0.9044737976083164</v>
+        <v>-0.90447379760831637</v>
       </c>
       <c r="D2">
-        <v>-0.8849878006111588</v>
+        <v>-0.88498780061115878</v>
       </c>
       <c r="E2">
-        <v>-1.6208283688819707</v>
+        <v>-1.8718674421976793</v>
       </c>
       <c r="F2">
-        <v>-1.9199548569493525</v>
+        <v>-1.8943328276503517</v>
       </c>
       <c r="G2">
         <v>-1.9386124506825042</v>
@@ -926,19 +926,19 @@
         <v>-1.0604496154543461</v>
       </c>
       <c r="B3">
-        <v>-0.9187599693252335</v>
+        <v>-0.91875996932523352</v>
       </c>
       <c r="C3">
         <v>-1.0694484189182218</v>
       </c>
       <c r="D3">
-        <v>-1.011811444756843</v>
+        <v>-1.0118114447568429</v>
       </c>
       <c r="E3">
-        <v>-2.6828601952374953</v>
+        <v>-2.7676321380541142</v>
       </c>
       <c r="F3">
-        <v>-2.0822605480298138</v>
+        <v>-2.4080614536141902</v>
       </c>
       <c r="G3">
         <v>-2.7999237889448176</v>
@@ -961,10 +961,10 @@
         <v>-1.1811964227044216</v>
       </c>
       <c r="E4">
-        <v>-3.5071329875161226</v>
+        <v>-3.665701758085901</v>
       </c>
       <c r="F4">
-        <v>-2.7640070805159267</v>
+        <v>-3.1112231507497055</v>
       </c>
       <c r="G4">
         <v>-3.643360005984416</v>
@@ -981,16 +981,16 @@
         <v>-1.3180401192659101</v>
       </c>
       <c r="C5">
-        <v>-1.310457372276237</v>
+        <v>-1.3104573722762369</v>
       </c>
       <c r="D5">
         <v>-1.3069860991627869</v>
       </c>
       <c r="E5">
-        <v>-4.271678583146132</v>
+        <v>-4.2716785831461319</v>
       </c>
       <c r="F5">
-        <v>-4.134211724238961</v>
+        <v>-3.8569462470565088</v>
       </c>
       <c r="G5">
         <v>-4.3791058163967325</v>
@@ -1051,22 +1051,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-0.05809723399090029</v>
+        <v>-5.8097233990900291E-2</v>
       </c>
       <c r="B2">
-        <v>-0.001018841274913509</v>
+        <v>-1.018841274913509E-3</v>
       </c>
       <c r="C2">
-        <v>-0.04751503096817266</v>
+        <v>-4.751503096817266E-2</v>
       </c>
       <c r="D2">
-        <v>-0.0342289195045519</v>
+        <v>-3.4228919504551897E-2</v>
       </c>
       <c r="E2">
-        <v>-0.8356642248295385</v>
+        <v>-0.90520418926756019</v>
       </c>
       <c r="F2">
-        <v>-0.9308883110634771</v>
+        <v>-0.92480376904968964</v>
       </c>
       <c r="G2">
         <v>-0.9176778423080465</v>
@@ -1083,19 +1083,19 @@
         <v>0.351002093953314</v>
       </c>
       <c r="C3">
-        <v>0.2441946782305704</v>
+        <v>0.24419467823057039</v>
       </c>
       <c r="D3">
-        <v>0.2872510888474922</v>
+        <v>0.28725108884749218</v>
       </c>
       <c r="E3">
-        <v>-1.4024445843438422</v>
+        <v>-1.4266658519412247</v>
       </c>
       <c r="F3">
-        <v>-1.112151573907951</v>
+        <v>-1.3220313415307932</v>
       </c>
       <c r="G3">
-        <v>-1.425390896271085</v>
+        <v>-1.4253908962710851</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1103,22 +1103,22 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.5201088569733555</v>
+        <v>0.52010885697335552</v>
       </c>
       <c r="B4">
-        <v>0.6168231980417535</v>
+        <v>0.61682319804175345</v>
       </c>
       <c r="C4">
-        <v>0.5263499816576357</v>
+        <v>0.52634998165763569</v>
       </c>
       <c r="D4">
-        <v>0.5393076757670842</v>
+        <v>0.53930767576708416</v>
       </c>
       <c r="E4">
-        <v>-1.8496310998620775</v>
+        <v>-1.9211130996687935</v>
       </c>
       <c r="F4">
-        <v>-1.491072996238004</v>
+        <v>-1.7307256330837464</v>
       </c>
       <c r="G4">
         <v>-1.9163883423920616</v>
@@ -1129,22 +1129,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>0.7358446024868955</v>
+        <v>0.73584460248689554</v>
       </c>
       <c r="B5">
-        <v>0.7420426404778461</v>
+        <v>0.74204264047784607</v>
       </c>
       <c r="C5">
-        <v>0.7500316741405831</v>
+        <v>0.75003167414058314</v>
       </c>
       <c r="D5">
-        <v>0.756591939463114</v>
+        <v>0.75659193946311398</v>
       </c>
       <c r="E5">
         <v>-2.3587540905008586</v>
       </c>
       <c r="F5">
-        <v>-2.275161578653868</v>
+        <v>-1.9993633110063771</v>
       </c>
       <c r="G5">
         <v>-2.386211095696507</v>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1297,16 +1297,16 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>15.7</v>
+        <v>9.26</v>
       </c>
       <c r="C8">
-        <v>0.27800000000000002</v>
+        <v>0.156</v>
       </c>
       <c r="D8">
-        <v>77.099999999999994</v>
+        <v>47.9</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/hollow_cylinder_cubic.xlsx
+++ b/xlsx/hollow_cylinder_cubic.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,7 +611,7 @@
         <v>-1.8932812392828844</v>
       </c>
       <c r="B2">
-        <v>-1.6848644699711186</v>
+        <v>-1.6848644699613649</v>
       </c>
       <c r="C2">
         <v>-1.9522225743224386</v>
@@ -757,7 +757,7 @@
         <v>-1.5192037633669138</v>
       </c>
       <c r="B2">
-        <v>-1.3485731035144168</v>
+        <v>-1.3485731035071877</v>
       </c>
       <c r="C2">
         <v>-1.5510724558103091</v>
@@ -900,7 +900,7 @@
         <v>-0.90186199382589483</v>
       </c>
       <c r="B2">
-        <v>-0.78403016531964509</v>
+        <v>-0.7840301653048201</v>
       </c>
       <c r="C2">
         <v>-0.90447379760831637</v>
@@ -1054,7 +1054,7 @@
         <v>-5.8097233990900291E-2</v>
       </c>
       <c r="B2">
-        <v>-1.018841274913509E-3</v>
+        <v>-0.0010188412494845408</v>
       </c>
       <c r="C2">
         <v>-4.751503096817266E-2</v>
